--- a/biology/Médecine/Insuffisance_respiratoire_chronique/Insuffisance_respiratoire_chronique.xlsx
+++ b/biology/Médecine/Insuffisance_respiratoire_chronique/Insuffisance_respiratoire_chronique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'insuffisance respiratoire chronique (IRC) correspond à l'incapacité du système respiratoire à assurer normalement l'hématose, c'est-à-dire l'oxygénation du sang ainsi que l'élimination du dioxyde de carbone au niveau des poumons. Par convention, l'IRC est définie par une pression partielle artérielle en dioxygène (PaO2) inférieure à 70 mmHg[1] lors de la mesure des gaz du sang artériel à trois reprises en dehors de tout épisode aigu. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'insuffisance respiratoire chronique (IRC) correspond à l'incapacité du système respiratoire à assurer normalement l'hématose, c'est-à-dire l'oxygénation du sang ainsi que l'élimination du dioxyde de carbone au niveau des poumons. Par convention, l'IRC est définie par une pression partielle artérielle en dioxygène (PaO2) inférieure à 70 mmHg lors de la mesure des gaz du sang artériel à trois reprises en dehors de tout épisode aigu. 
 Elle est la conséquence définitive de nombreuses pathologies respiratoires, que l'on peut séparer en deux grands types :
 Les pathologies obstructives telles que les bronchopneumopathies chroniques obstructives (BPCO) ou l'asthme sévère, où l'on constate alors une atteinte du parenchyme pulmonaire aboutissant à une diminution des échanges gazeux;
 Les pathologies restrictives, plus généralement dues à une atteinte neurologique ou neuromusculaire, et pour lesquelles il y a alors une atteinte de la mécanique ventilatoire.
-L'insuffisance respiratoire chronique grave (IRCG) est définie quant à elle par une pression artérielle en oxygène (PaO2) inférieure à 55 mmHg (ou inférieure à 60 mmHg avec hypoxémie nocturne, polyglobulie, ou signes d’insuffisance cardiaque droite[2]), nécessitant une oxygénation à domicile.
+L'insuffisance respiratoire chronique grave (IRCG) est définie quant à elle par une pression artérielle en oxygène (PaO2) inférieure à 55 mmHg (ou inférieure à 60 mmHg avec hypoxémie nocturne, polyglobulie, ou signes d’insuffisance cardiaque droite), nécessitant une oxygénation à domicile.
 </t>
         </is>
       </c>
